--- a/biology/Zoologie/Dysagrionidae/Dysagrionidae.xlsx
+++ b/biology/Zoologie/Dysagrionidae/Dysagrionidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dysagrionidae sont une famille fossile d'insectes de l'ordre des Odonates. 
 </t>
@@ -511,11 +523,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La famille des Dysagrionidae est créée en 1908 par le paléontologue américain Theodore Dru Alison Cockerell (1866-1948)[1],[2]. 
-Fossiles
-Selon Paleobiology Database en 2023, trente-trois collections de fossiles, pour soixante-quatre occurrences sont référencées : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Dysagrionidae est créée en 1908 par le paléontologue américain Theodore Dru Alison Cockerell (1866-1948),. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dysagrionidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysagrionidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, trente-trois collections de fossiles, pour soixante-quatre occurrences sont référencées : 
 Miocène, une collection de Bulgarie et une de Croatie ;
 Éocène, sept collections de Colombie-Britannique (Canada), une du Danemark, une d'Allemagne, deux de Russie, une du Royaume-Uni, treize des États-Unis (Colorado, Washington et Wyoming) ;
 Paléocène à l'Éocène, une collection en Alaska (États-Unis) ;
@@ -524,37 +573,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dysagrionidae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dysagrionidae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Sous-familles</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>†Dysagrioninae Cockerell, 1908 ;
-†Petrolestinae Cockerell, 1927.</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -576,12 +594,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Sous-familles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>†Dysagrioninae Cockerell, 1908 ;
+†Petrolestinae Cockerell, 1927.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dysagrionidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dysagrionidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des sous-familles et genres non affiliés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon IRMNG et TPDB en 2023, les genres par sous-famille et non affiliés s'établissent à vingt-et-un genres[note 1][3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon IRMNG et TPDB en 2023, les genres par sous-famille et non affiliés s'établissent à vingt-et-un genres[note 1] :
 † sous-famille des Dysagrioninae Cockerell, 1908 ;
 † genre Allenbya Archibald and Cannings, 2022
 † genre Dysagrion Scudder, 1878
